--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/11.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/11.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2240793753341299</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.599676305847289</v>
+        <v>-1.598513892726209</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1522809550590772</v>
+        <v>0.1533103635644079</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2453147009623552</v>
+        <v>-0.2456247827292515</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2485843988857172</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.532246113700329</v>
+        <v>-1.530339189534873</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1009600616090683</v>
+        <v>0.1014747658617336</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2486106970023589</v>
+        <v>-0.2489459630751959</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2766021135344995</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.48770294658664</v>
+        <v>-1.484763465877611</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09668974773297953</v>
+        <v>0.09708482653242599</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.258646642919772</v>
+        <v>-0.2589220962659997</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2916629572307699</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.557011730554874</v>
+        <v>-1.554207615490276</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1240839765200967</v>
+        <v>0.1240399039847003</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2355447642764419</v>
+        <v>-0.2355416162381992</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.292909670050275</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.591234054290193</v>
+        <v>-1.589048528740267</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1092331061106247</v>
+        <v>0.1086381268827731</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2614137685350186</v>
+        <v>-0.2614232126497464</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2865391689164705</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.477927500833802</v>
+        <v>-1.475982800209436</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1226815254830178</v>
+        <v>0.1214899930081932</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2532634975249237</v>
+        <v>-0.2532209990086486</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2796015732858899</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.262840148936746</v>
+        <v>-1.261861896052857</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1595214430170604</v>
+        <v>0.1576829886833812</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2595375377424282</v>
+        <v>-0.2594903171687892</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2736676692370629</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.005517928967388</v>
+        <v>-1.005530521120358</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1815545626770274</v>
+        <v>0.1791415913640735</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2569860527467998</v>
+        <v>-0.256960868440859</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2661837596647568</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5927038690716596</v>
+        <v>-0.5933460688731503</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1705159665793457</v>
+        <v>0.1678543002452262</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1653466595046738</v>
+        <v>-0.1649846351067746</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2523627287613191</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2196219868453641</v>
+        <v>-0.2210260119015643</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1402523009340974</v>
+        <v>0.1377102600531968</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1295125401891423</v>
+        <v>-0.1293645823917401</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2252109776029491</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2415923740207996</v>
+        <v>0.2398326206431854</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1052067651983375</v>
+        <v>0.1033525706734453</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03906625344096219</v>
+        <v>-0.03895922014071375</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1768536466434557</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7666788568102237</v>
+        <v>0.7638298822006695</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.00413247306281473</v>
+        <v>-0.004961981139740192</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05484287537407944</v>
+        <v>0.05483028322110903</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1035388828217191</v>
       </c>
       <c r="E14" t="n">
-        <v>1.311673533445859</v>
+        <v>1.308270504105607</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.228400291484858</v>
+        <v>-0.2296736729539903</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1590728475674897</v>
+        <v>0.1588304486228094</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.006524017784189162</v>
       </c>
       <c r="E15" t="n">
-        <v>1.87310883980348</v>
+        <v>1.869606647258586</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4399217030626084</v>
+        <v>-0.4412375830480157</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2927416993865867</v>
+        <v>0.292486708288936</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1103070443952988</v>
       </c>
       <c r="E16" t="n">
-        <v>2.344881720935329</v>
+        <v>2.340904174615802</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6644397905249385</v>
+        <v>-0.6653243892711095</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4371878601292295</v>
+        <v>0.4369360170698214</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2380513091370225</v>
       </c>
       <c r="E17" t="n">
-        <v>2.799924352826872</v>
+        <v>2.795542283593171</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8778815054306757</v>
+        <v>-0.8779979828456519</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5565205457915199</v>
+        <v>0.5559208445063043</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.36380105609961</v>
       </c>
       <c r="E18" t="n">
-        <v>3.222435157519373</v>
+        <v>3.218410390626208</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.206178608608163</v>
+        <v>-1.206218746095757</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6779419548277762</v>
+        <v>0.6772556824908891</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4841476065758097</v>
       </c>
       <c r="E19" t="n">
-        <v>3.596592094805517</v>
+        <v>3.592721581786239</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.505687689066622</v>
+        <v>-1.505036832159964</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8390050354339904</v>
+        <v>0.8383470954412867</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.602258824639072</v>
       </c>
       <c r="E20" t="n">
-        <v>3.720849886298358</v>
+        <v>3.716005055442994</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.841804519238732</v>
+        <v>-1.841121394940087</v>
       </c>
       <c r="G20" t="n">
-        <v>1.015466745103889</v>
+        <v>1.014780472767002</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7209594051495958</v>
       </c>
       <c r="E21" t="n">
-        <v>3.970459412573342</v>
+        <v>3.965775131668351</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.078880131250799</v>
+        <v>-2.077762577674675</v>
       </c>
       <c r="G21" t="n">
-        <v>1.183461805920312</v>
+        <v>1.182816458080578</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8395078289801663</v>
       </c>
       <c r="E22" t="n">
-        <v>4.175823261348564</v>
+        <v>4.17083204671492</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.374550179072405</v>
+        <v>-2.374107092689759</v>
       </c>
       <c r="G22" t="n">
-        <v>1.323859589482969</v>
+        <v>1.323078875998804</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.9541494559636251</v>
       </c>
       <c r="E23" t="n">
-        <v>4.401037065262509</v>
+        <v>4.396425189237098</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.50641363095937</v>
+        <v>-2.505777727234365</v>
       </c>
       <c r="G23" t="n">
-        <v>1.495254531601401</v>
+        <v>1.494602887685182</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.06146940917852</v>
       </c>
       <c r="E24" t="n">
-        <v>4.528611315043929</v>
+        <v>4.524174155140983</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.620851117154416</v>
+        <v>-2.620361597207691</v>
       </c>
       <c r="G24" t="n">
-        <v>1.59932552786356</v>
+        <v>1.598607775144247</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.158253908988105</v>
       </c>
       <c r="E25" t="n">
-        <v>4.669622966063894</v>
+        <v>4.665761897159344</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.81705732268191</v>
+        <v>-2.817239908899981</v>
       </c>
       <c r="G25" t="n">
-        <v>1.662522395583782</v>
+        <v>1.661812512960076</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.239872872237448</v>
       </c>
       <c r="E26" t="n">
-        <v>4.783161687340677</v>
+        <v>4.779815322688791</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.907080985296021</v>
+        <v>-2.907290329839154</v>
       </c>
       <c r="G26" t="n">
-        <v>1.705614317067631</v>
+        <v>1.705110630948815</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.302606557334878</v>
       </c>
       <c r="E27" t="n">
-        <v>4.89363894142653</v>
+        <v>4.891249580400395</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.979707014562395</v>
+        <v>-2.980354723430811</v>
       </c>
       <c r="G27" t="n">
-        <v>1.756113572536321</v>
+        <v>1.755790898616455</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.344532111542069</v>
       </c>
       <c r="E28" t="n">
-        <v>4.893453207170216</v>
+        <v>4.891167731406088</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.069182131512733</v>
+        <v>-3.070135200090681</v>
       </c>
       <c r="G28" t="n">
-        <v>1.797480369063225</v>
+        <v>1.797289912749547</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.366163297005767</v>
       </c>
       <c r="E29" t="n">
-        <v>4.902730475871162</v>
+        <v>4.900780266179871</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.08322867815122</v>
+        <v>-3.08433049153613</v>
       </c>
       <c r="G29" t="n">
-        <v>1.728676845232929</v>
+        <v>1.728247138012814</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.368462751388389</v>
       </c>
       <c r="E30" t="n">
-        <v>4.844562599243496</v>
+        <v>4.842536836634381</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.073095930057847</v>
+        <v>-3.07431028580993</v>
       </c>
       <c r="G30" t="n">
-        <v>1.692375242238371</v>
+        <v>1.692091918796537</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.353236191463477</v>
       </c>
       <c r="E31" t="n">
-        <v>4.719287991398295</v>
+        <v>4.717536108116287</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.06203923274027</v>
+        <v>-3.063552652125401</v>
       </c>
       <c r="G31" t="n">
-        <v>1.633639144707915</v>
+        <v>1.633373135476415</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.322150015326117</v>
       </c>
       <c r="E32" t="n">
-        <v>4.639241248984549</v>
+        <v>4.637830927851863</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.023383684149807</v>
+        <v>-3.024892381477574</v>
       </c>
       <c r="G32" t="n">
-        <v>1.595942960771885</v>
+        <v>1.595892592160003</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.277849953107279</v>
       </c>
       <c r="E33" t="n">
-        <v>4.561228139275523</v>
+        <v>4.560757507558254</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.954285818743828</v>
+        <v>-2.955890531237995</v>
       </c>
       <c r="G33" t="n">
-        <v>1.566699259517239</v>
+        <v>1.56707545008723</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.222618647415892</v>
       </c>
       <c r="E34" t="n">
-        <v>4.359039087067964</v>
+        <v>4.358130878034974</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.882188659902211</v>
+        <v>-2.884034197321936</v>
       </c>
       <c r="G34" t="n">
-        <v>1.516236206488339</v>
+        <v>1.51687840628983</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.158599943510878</v>
       </c>
       <c r="E35" t="n">
-        <v>4.134083422289913</v>
+        <v>4.133422334258966</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.850646103720906</v>
+        <v>-2.852750567286085</v>
       </c>
       <c r="G35" t="n">
-        <v>1.394945441039151</v>
+        <v>1.395480607540393</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.088147921491182</v>
       </c>
       <c r="E36" t="n">
-        <v>3.983097212098265</v>
+        <v>3.98281231463731</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.825518462468462</v>
+        <v>-2.827773244859725</v>
       </c>
       <c r="G36" t="n">
-        <v>1.368591638891213</v>
+        <v>1.369403832757804</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.013733609666995</v>
       </c>
       <c r="E37" t="n">
-        <v>3.787147571687543</v>
+        <v>3.787175904031726</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.761662867745975</v>
+        <v>-2.763952278557907</v>
       </c>
       <c r="G37" t="n">
-        <v>1.281405145743247</v>
+        <v>1.282081973965406</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9381560212594496</v>
       </c>
       <c r="E38" t="n">
-        <v>3.717470467244925</v>
+        <v>3.718260624843818</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.730484696991251</v>
+        <v>-2.733077893493594</v>
       </c>
       <c r="G38" t="n">
-        <v>1.238278595838729</v>
+        <v>1.239301708267575</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8640748386424539</v>
       </c>
       <c r="E39" t="n">
-        <v>3.507316878283585</v>
+        <v>3.508426561764102</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.748165653780822</v>
+        <v>-2.750946158558599</v>
       </c>
       <c r="G39" t="n">
-        <v>1.163144367102562</v>
+        <v>1.164115536900405</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7920672720963069</v>
       </c>
       <c r="E40" t="n">
-        <v>3.261637677754488</v>
+        <v>3.262742639177641</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.713631674259485</v>
+        <v>-2.716592404226651</v>
       </c>
       <c r="G40" t="n">
-        <v>1.099018828100772</v>
+        <v>1.0999962939751</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7219448063109216</v>
       </c>
       <c r="E41" t="n">
-        <v>3.089583221624232</v>
+        <v>3.090927433953822</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.653076010624804</v>
+        <v>-2.655838414182687</v>
       </c>
       <c r="G41" t="n">
-        <v>1.067053647785398</v>
+        <v>1.068136572940853</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6523354385301503</v>
       </c>
       <c r="E42" t="n">
-        <v>2.975732844561431</v>
+        <v>2.977774347361759</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.622083574126394</v>
+        <v>-2.62500731464421</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9829097335989058</v>
+        <v>0.9838966435879613</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5822810556567393</v>
       </c>
       <c r="E43" t="n">
-        <v>2.84227648532371</v>
+        <v>2.844794915917791</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.605332862637512</v>
+        <v>-2.608490344994841</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9308128487220956</v>
+        <v>0.9317698523478464</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5116356044644753</v>
       </c>
       <c r="E44" t="n">
-        <v>2.713852265216787</v>
+        <v>2.716743738342617</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.533541850514987</v>
+        <v>-2.53652225572117</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8665708323053294</v>
+        <v>0.8677371804742131</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4397711556841378</v>
       </c>
       <c r="E45" t="n">
-        <v>2.517120337302778</v>
+        <v>2.520084215308187</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.468164179302203</v>
+        <v>-2.47104148625594</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8366487288094032</v>
+        <v>0.8378859078387456</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3670574012770674</v>
       </c>
       <c r="E46" t="n">
-        <v>2.391286952669516</v>
+        <v>2.394540450193244</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.428424131537164</v>
+        <v>-2.431706748414636</v>
       </c>
       <c r="G46" t="n">
-        <v>0.773291311138808</v>
+        <v>0.7745253421299078</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2938186485143047</v>
       </c>
       <c r="E47" t="n">
-        <v>2.228308290792679</v>
+        <v>2.231498827551555</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.293296951002182</v>
+        <v>-2.296064076617428</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7168879099461192</v>
+        <v>0.7181502732814022</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2208513845735817</v>
       </c>
       <c r="E48" t="n">
-        <v>2.140293863586908</v>
+        <v>2.143915681585021</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.252187506601611</v>
+        <v>-2.255403227666428</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6681720181418629</v>
+        <v>0.6694863241081489</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1477457056416428</v>
       </c>
       <c r="E49" t="n">
-        <v>1.987058380070922</v>
+        <v>1.990825007828195</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.200296818229691</v>
+        <v>-2.203551889772541</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5936327686335475</v>
+        <v>0.595069848091295</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.07467120227367588</v>
       </c>
       <c r="E50" t="n">
-        <v>1.894022831868202</v>
+        <v>1.897740665032715</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.15287004808578</v>
+        <v>-2.156130628695554</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5369145636165985</v>
+        <v>0.538272942118281</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.001432639431314937</v>
       </c>
       <c r="E51" t="n">
-        <v>1.770175859366022</v>
+        <v>1.773807121478862</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.102868969668982</v>
+        <v>-2.106209825253942</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4917323447396623</v>
+        <v>0.4931426658723477</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.07052194749740073</v>
       </c>
       <c r="E52" t="n">
-        <v>1.658795118304542</v>
+        <v>1.662206017740401</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.984661707678421</v>
+        <v>-1.987414667121576</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4562067331719057</v>
+        <v>0.4576076101898633</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1400393805652581</v>
       </c>
       <c r="E53" t="n">
-        <v>1.61540885524501</v>
+        <v>1.619307700608472</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.925183460132272</v>
+        <v>-1.927917531345971</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3849918120477774</v>
+        <v>0.3861298278724778</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2060326632537097</v>
       </c>
       <c r="E54" t="n">
-        <v>1.572168975963759</v>
+        <v>1.576607709885827</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.914828775342795</v>
+        <v>-1.917724183516428</v>
       </c>
       <c r="G54" t="n">
-        <v>0.35056643984581</v>
+        <v>0.3517422321294217</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2681977432069796</v>
       </c>
       <c r="E55" t="n">
-        <v>1.517364778198312</v>
+        <v>1.522056929198909</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.849610080061262</v>
+        <v>-1.852344938284522</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3235798820111098</v>
+        <v>0.3248894659200319</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3261036080193939</v>
       </c>
       <c r="E56" t="n">
-        <v>1.459160699130855</v>
+        <v>1.464293575485416</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.787693676896217</v>
+        <v>-1.790167247945341</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2161341887528822</v>
+        <v>0.216902310084077</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3799271870783212</v>
       </c>
       <c r="E57" t="n">
-        <v>1.469372935189854</v>
+        <v>1.474732470297883</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.785511299384534</v>
+        <v>-1.787910104525396</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2170738781682987</v>
+        <v>0.217960050933591</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4304697588674744</v>
       </c>
       <c r="E58" t="n">
-        <v>1.454619653965902</v>
+        <v>1.460353805624801</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.77052506333063</v>
+        <v>-1.772902619213355</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2126461623800799</v>
+        <v>0.2135811297381325</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.478622341646693</v>
       </c>
       <c r="E59" t="n">
-        <v>1.442894785531334</v>
+        <v>1.448992535607252</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.734119575074066</v>
+        <v>-1.73610913524339</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1387443906158913</v>
+        <v>0.1393881644365033</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.5247167497316625</v>
       </c>
       <c r="E60" t="n">
-        <v>1.475783915070911</v>
+        <v>1.482753671740031</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.766504231485267</v>
+        <v>-1.768692118063875</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1185544473469674</v>
+        <v>0.1192438677220971</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.569346126226482</v>
       </c>
       <c r="E61" t="n">
-        <v>1.473583436339333</v>
+        <v>1.480908921329867</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.784846276305784</v>
+        <v>-1.787074300371985</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1309152195065417</v>
+        <v>0.1318155584439257</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6128325037079235</v>
       </c>
       <c r="E62" t="n">
-        <v>1.484563793729527</v>
+        <v>1.492372502590299</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.828801547277667</v>
+        <v>-1.831137391653677</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04346114310795417</v>
+        <v>0.0439915875518325</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.6553465283275752</v>
       </c>
       <c r="E63" t="n">
-        <v>1.471302682632568</v>
+        <v>1.47941202914551</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.789886285532189</v>
+        <v>-1.79175149819093</v>
       </c>
       <c r="G63" t="n">
-        <v>0.009127064015022264</v>
+        <v>0.009635472191202386</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6959546546845432</v>
       </c>
       <c r="E64" t="n">
-        <v>1.472936514480478</v>
+        <v>1.481302426110192</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.817393056686479</v>
+        <v>-1.819301554871056</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.0212420609113532</v>
+        <v>-0.02068800618065536</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7336608348764908</v>
       </c>
       <c r="E65" t="n">
-        <v>1.483400593598885</v>
+        <v>1.492284357519507</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.842870917193413</v>
+        <v>-1.844777841358869</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02423584528006711</v>
+        <v>-0.02367392045376277</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7681694319423438</v>
       </c>
       <c r="E66" t="n">
-        <v>1.447056492088053</v>
+        <v>1.455696283044872</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.84821628612935</v>
+        <v>-1.849890255464853</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03247583538007622</v>
+        <v>-0.0319752972995026</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7988006647303487</v>
       </c>
       <c r="E67" t="n">
-        <v>1.412668896344996</v>
+        <v>1.421610898973106</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.860038743749439</v>
+        <v>-1.861502581532249</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05159229760827307</v>
+        <v>-0.05107287129824384</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.8244133792384751</v>
       </c>
       <c r="E68" t="n">
-        <v>1.362566293694874</v>
+        <v>1.371620051680596</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.889945107054152</v>
+        <v>-1.891231867685816</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.05902324187993362</v>
+        <v>-0.05836215384898732</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8430654384214067</v>
       </c>
       <c r="E69" t="n">
-        <v>1.258649551306603</v>
+        <v>1.267256287861875</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.911342322989114</v>
+        <v>-1.912564548836804</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08122005952851591</v>
+        <v>-0.08064711656836246</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8519097037621998</v>
       </c>
       <c r="E70" t="n">
-        <v>1.275047682512313</v>
+        <v>1.284236806142467</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.916797873263542</v>
+        <v>-1.917503033829885</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.04994902164563515</v>
+        <v>-0.04919978854389602</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8489517046485794</v>
       </c>
       <c r="E71" t="n">
-        <v>1.267759973980691</v>
+        <v>1.27702779856691</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.951074500658547</v>
+        <v>-1.951609667159789</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.06980842089908593</v>
+        <v>-0.06887187952191202</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8329950366820197</v>
       </c>
       <c r="E72" t="n">
-        <v>1.251176108518667</v>
+        <v>1.260711516355507</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.98062985769921</v>
+        <v>-1.980977715925017</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1048382164436327</v>
+        <v>-0.1040763911889232</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8043659366700049</v>
       </c>
       <c r="E73" t="n">
-        <v>1.255791132582321</v>
+        <v>1.265586253574175</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.980408708012667</v>
+        <v>-1.98065425499559</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09215634438331309</v>
+        <v>-0.09130637405781072</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7642593237347389</v>
       </c>
       <c r="E74" t="n">
-        <v>1.249898004992171</v>
+        <v>1.260179497892507</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.988422826368769</v>
+        <v>-1.988454306751195</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07300053167708373</v>
+        <v>-0.07195695699966137</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7147837287469396</v>
       </c>
       <c r="E75" t="n">
-        <v>1.193951069344659</v>
+        <v>1.204001181434164</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.021183673349961</v>
+        <v>-2.021193117464689</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04506484031223912</v>
+        <v>-0.04386386372268669</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6571734148711839</v>
       </c>
       <c r="E76" t="n">
-        <v>1.228843925225653</v>
+        <v>1.239227729368874</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.02447416032304</v>
+        <v>-2.024235696426163</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02524793957506346</v>
+        <v>-0.02385335863359105</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5937363556546538</v>
       </c>
       <c r="E77" t="n">
-        <v>1.16275401036048</v>
+        <v>1.173085871872698</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.022102900516801</v>
+        <v>-2.021747172195387</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02682038467724284</v>
+        <v>-0.0255690394758088</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5277068297654287</v>
       </c>
       <c r="E78" t="n">
-        <v>1.182004264213987</v>
+        <v>1.192298349267294</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.032729103604702</v>
+        <v>-2.032305692461072</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02180870779502146</v>
+        <v>-0.02045347733158156</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4611036353740147</v>
       </c>
       <c r="E79" t="n">
-        <v>1.167329683946101</v>
+        <v>1.177499421488825</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.009837356514065</v>
+        <v>-2.009313995156233</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04341054621575209</v>
+        <v>-0.04224419804686828</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3951788256989421</v>
       </c>
       <c r="E80" t="n">
-        <v>1.145661736722276</v>
+        <v>1.15517825632966</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.971364394141673</v>
+        <v>-1.970991351609925</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02725638797384313</v>
+        <v>-0.02600346875328779</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3315691014694292</v>
       </c>
       <c r="E81" t="n">
-        <v>1.17002755272001</v>
+        <v>1.179056126399791</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.924561722579358</v>
+        <v>-1.924063545527466</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.007585871014948439</v>
+        <v>-0.006293601316360574</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2717404121137591</v>
       </c>
       <c r="E82" t="n">
-        <v>1.228324498915624</v>
+        <v>1.237364090729254</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.952767358223506</v>
+        <v>-1.952741386908004</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02011529150082237</v>
+        <v>0.02153977880559949</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2159425276247935</v>
       </c>
       <c r="E83" t="n">
-        <v>1.314994713791804</v>
+        <v>1.323632930729502</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.847699220848003</v>
+        <v>-1.847663805417773</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01257888794803467</v>
+        <v>0.01374366209779718</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1639766591803021</v>
       </c>
       <c r="E84" t="n">
-        <v>1.308904833811491</v>
+        <v>1.31655141870277</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.786613899779005</v>
+        <v>-1.786900371259082</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02304611510468425</v>
+        <v>0.02412431820277522</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1142915291849418</v>
       </c>
       <c r="E85" t="n">
-        <v>1.417927694229262</v>
+        <v>1.424927357261686</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.758556221932259</v>
+        <v>-1.759403044219519</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01669179991199337</v>
+        <v>0.01762361923180338</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.06778408629927929</v>
       </c>
       <c r="E86" t="n">
-        <v>1.663295238972341</v>
+        <v>1.670041484926236</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.653778491084637</v>
+        <v>-1.654918080928458</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03245245337357715</v>
+        <v>0.03328038743138132</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.02766790213908263</v>
       </c>
       <c r="E87" t="n">
-        <v>1.597479203434274</v>
+        <v>1.602437363666371</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.533851613204055</v>
+        <v>-1.535329617158957</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05323107979386753</v>
+        <v>0.05399920112506227</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.002842756204024301</v>
       </c>
       <c r="E88" t="n">
-        <v>1.745273302847923</v>
+        <v>1.749814348012876</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.333876418890606</v>
+        <v>-1.335246602535698</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08991674345402266</v>
+        <v>0.09065338440279139</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.02114984646157526</v>
       </c>
       <c r="E89" t="n">
-        <v>1.913125127924308</v>
+        <v>1.917102674243834</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.158726654158311</v>
+        <v>-1.159977999359745</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1136560998414796</v>
+        <v>0.1143644084460649</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.02488064242586036</v>
       </c>
       <c r="E90" t="n">
-        <v>1.934204391996766</v>
+        <v>1.937141511677113</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9181504236204717</v>
+        <v>-0.919266403177474</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1425125923922851</v>
+        <v>0.1432319191307196</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.01281078558432691</v>
       </c>
       <c r="E91" t="n">
-        <v>1.972682863436083</v>
+        <v>1.97526897685238</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6655762323305175</v>
+        <v>-0.666761468728857</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09555173190827913</v>
+        <v>0.09587125778990317</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.01330731925010712</v>
       </c>
       <c r="E92" t="n">
-        <v>1.988813411391172</v>
+        <v>1.991268881220402</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4600911840829554</v>
+        <v>-0.4613535474182385</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1068201347976707</v>
+        <v>0.1072278057500876</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.04963236318564451</v>
       </c>
       <c r="E93" t="n">
-        <v>1.962214062260312</v>
+        <v>1.964601849267325</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2394467576781462</v>
+        <v>-0.2404604259922639</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09184334285849471</v>
+        <v>0.09221323735200036</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.08930012036689483</v>
       </c>
       <c r="E94" t="n">
-        <v>1.849435592219118</v>
+        <v>1.851603016549149</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05629546674271952</v>
+        <v>-0.05730913505683716</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06657718792337607</v>
+        <v>0.06690458390060661</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1251917402142148</v>
       </c>
       <c r="E95" t="n">
-        <v>1.798391726134458</v>
+        <v>1.800250642716714</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07496513582078743</v>
+        <v>0.07376415923123501</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05419437949610355</v>
+        <v>0.05463667886918905</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1541919340729953</v>
       </c>
       <c r="E96" t="n">
-        <v>1.670242959373762</v>
+        <v>1.671928733852675</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1479382363034086</v>
+        <v>0.1467813322492526</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005377522187763574</v>
+        <v>-0.005113086975385059</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1772362124991467</v>
       </c>
       <c r="E97" t="n">
-        <v>1.504664017908536</v>
+        <v>1.505628891629894</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1518622659728112</v>
+        <v>0.1503669478075756</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02066911795119976</v>
+        <v>-0.02035274010781832</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2010205096018155</v>
       </c>
       <c r="E98" t="n">
-        <v>1.391004097159414</v>
+        <v>1.39177379250973</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1798199936053541</v>
+        <v>0.1784915214669763</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05896500317244549</v>
+        <v>-0.05849909351254048</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2311687166540989</v>
       </c>
       <c r="E99" t="n">
-        <v>1.251324066316069</v>
+        <v>1.251648314255057</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1827382250562455</v>
+        <v>0.1813845686119269</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09860195268503941</v>
+        <v>-0.09828557484165797</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2729517936350129</v>
       </c>
       <c r="E100" t="n">
-        <v>1.092104162100898</v>
+        <v>1.092115180234748</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2387119190288193</v>
+        <v>0.237920187410805</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1457847498651488</v>
+        <v>-0.1456604023545661</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3199967339105579</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9102955094759412</v>
+        <v>0.909514795991776</v>
       </c>
       <c r="F101" t="n">
-        <v>0.220771249084234</v>
+        <v>0.2198567439747584</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1716222737412996</v>
+        <v>-0.1714333914467435</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3760341138413827</v>
       </c>
       <c r="E102" t="n">
-        <v>0.850419822101663</v>
+        <v>0.849917710001968</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2588499196667403</v>
+        <v>0.2582565144580099</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.209628539444226</v>
+        <v>-0.2095073399718859</v>
       </c>
     </row>
   </sheetData>
